--- a/prog/data_processing/result/describe_predictors/1_initial_formated.xlsx
+++ b/prog/data_processing/result/describe_predictors/1_initial_formated.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -686,7 +686,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
